--- a/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
+++ b/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365khu-my.sharepoint.com/personal/sopiayoo_office_khu_ac_kr/Documents/문서/GitHub/SNPQuantTeam01/Jiyoung/1127/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608490BE-00E9-4C00-B4F2-DFAEB161CC7A}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A68452-C3EA-4BFC-B519-93F787348FB3}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" xr2:uid="{3B244F5F-9197-430A-9637-ECAD84FA9EF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3B244F5F-9197-430A-9637-ECAD84FA9EF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lookback 1yr" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>No rebalancing</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>정확한 수치 아님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSharpe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxReturn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -68,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,9 +125,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -145,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,22 +188,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -189,6 +228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,10 +534,10 @@
   <dimension ref="C1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
@@ -504,230 +547,244 @@
     <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="3:13">
+      <c r="C1" s="2"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="3:13">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>30</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>45</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>15</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>30</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>45</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <v>15</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <v>30</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="3:13">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="10">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>1.15E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>1.03E-2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="10">
         <v>1.06E-2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>1.035E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>1.04E-2</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="3:13">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>(10072-10000)/10000</f>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>(10055-10000)/10000</f>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>(10060-10000)/10000</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="10">
         <f>(10372-10000)/10000</f>
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <f>(9983-10000)/10000</f>
         <v>-1.6999999999999999E-3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <f>(10044-10000)/10000</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="10">
         <f>(10331-10000)/10000</f>
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f>(9991-10000)/10000</f>
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="10">
         <f>(10147-10000)/10000</f>
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+    <row r="5" spans="3:13">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+    <row r="6" spans="3:13">
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>15</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>30</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>45</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>15</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>30</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <v>45</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
         <v>15</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>30</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="3:13">
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>1.15E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="8">
         <v>1.15E-2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="8">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
         <v>1.04E-2</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="8">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="9">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="8">
         <v>1.04E-2</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="3:13">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <f>(9526-10000)/10000</f>
         <v>-4.7399999999999998E-2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <f>(9684-10000)/10000</f>
         <v>-3.1600000000000003E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <f>(9621-10000)/10000</f>
         <v>-3.7900000000000003E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <f>(10236-10000)/10000</f>
         <v>2.3599999999999999E-2</v>
       </c>
@@ -735,11 +792,11 @@
         <f>(10026-10000)/10000</f>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <f>(10112-10000)/10000</f>
         <v>1.12E-2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <f>(10331-10000)/10000</f>
         <v>3.3099999999999997E-2</v>
       </c>
@@ -747,7 +804,7 @@
         <f>(9991-10000)/10000</f>
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="9">
         <f>(10147-10000)/10000</f>
         <v>1.47E-2</v>
       </c>

--- a/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
+++ b/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365khu-my.sharepoint.com/personal/sopiayoo_office_khu_ac_kr/Documents/문서/GitHub/SNPQuantTeam01/Jiyoung/1127/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A68452-C3EA-4BFC-B519-93F787348FB3}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{382B5054-2EE3-4B04-9673-4FFF9973E7A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{3B244F5F-9197-430A-9637-ECAD84FA9EF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{3B244F5F-9197-430A-9637-ECAD84FA9EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="lookback 1yr" sheetId="1" r:id="rId1"/>
+    <sheet name="lookback 2yr" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>No rebalancing</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +153,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,25 +200,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89D2B4-DABB-471A-A1A4-1F50EAB8882A}">
   <dimension ref="C1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -549,51 +564,51 @@
   <sheetData>
     <row r="1" spans="3:13">
       <c r="C1" s="2"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="3:13">
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>15</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>30</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>45</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>15</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>30</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>45</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>15</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>30</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>45</v>
       </c>
     </row>
@@ -601,31 +616,31 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>1.15E-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>1.03E-2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>1.06E-2</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>1.035E-2</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>1.04E-2</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -636,100 +651,100 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>(10072-10000)/10000</f>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>(10055-10000)/10000</f>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>(10060-10000)/10000</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>(10372-10000)/10000</f>
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>(9983-10000)/10000</f>
         <v>-1.6999999999999999E-3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>(10044-10000)/10000</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f>(10331-10000)/10000</f>
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f>(9991-10000)/10000</f>
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <f>(10147-10000)/10000</f>
         <v>1.47E-2</v>
       </c>
     </row>
     <row r="5" spans="3:13">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>30</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>45</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>30</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>45</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>15</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>30</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>45</v>
       </c>
     </row>
@@ -737,31 +752,31 @@
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1.15E-2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>1.15E-2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>1.04E-2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>1.04E-2</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -772,42 +787,350 @@
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f>(9526-10000)/10000</f>
         <v>-4.7399999999999998E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f>(9684-10000)/10000</f>
         <v>-3.1600000000000003E-2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f>(9621-10000)/10000</f>
         <v>-3.7900000000000003E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f>(10236-10000)/10000</f>
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f>(10026-10000)/10000</f>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f>(10112-10000)/10000</f>
         <v>1.12E-2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <f>(10331-10000)/10000</f>
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f>(9991-10000)/10000</f>
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <f>(10147-10000)/10000</f>
         <v>1.47E-2</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E41E6-F58C-4CF1-B36D-AFF5C3A9EE78}">
+  <dimension ref="C1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13">
+      <c r="C1" s="4"/>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="3:13">
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45</v>
+      </c>
+      <c r="J2" s="4">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.15E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.03E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.06E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.035E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <f>(10015-10000)/10000</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="E4" s="5">
+        <f>(9987-10000)/10000</f>
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <f>(10028-10000)/10000</f>
+        <v>2.8E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <f>(10307-10000)/10000</f>
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <f>(10017-10000)/10000</f>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I4" s="5">
+        <f>(9951-10000)/10000</f>
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="J4" s="9">
+        <f>(10289-10000)/10000</f>
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <f>(10049-10000)/10000</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L4" s="5">
+        <f>(9964-10000)/10000</f>
+        <v>-3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45</v>
+      </c>
+      <c r="J7" s="4">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4">
+        <v>30</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.15E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <f>(9516-10000)/10000</f>
+        <v>-4.8399999999999999E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <f>(9680-10000)/10000</f>
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <f>(9642-10000)/10000</f>
+        <v>-3.5799999999999998E-2</v>
+      </c>
+      <c r="G9" s="8">
+        <f>(10314-10000)/10000</f>
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f>(10022-10000)/10000</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I9" s="7">
+        <f>(9964-10000)/10000</f>
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="J9" s="8">
+        <f>(10289-10000)/10000</f>
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <f>(10049-10000)/10000</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L9" s="7">
+        <f>(9964-10000)/10000</f>
+        <v>-3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
+++ b/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365khu-my.sharepoint.com/personal/sopiayoo_office_khu_ac_kr/Documents/문서/GitHub/SNPQuantTeam01/Jiyoung/1127/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{382B5054-2EE3-4B04-9673-4FFF9973E7A1}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E261DD1B-D2EA-41E5-8EAD-CAA06F338FDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{3B244F5F-9197-430A-9637-ECAD84FA9EF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3B244F5F-9197-430A-9637-ECAD84FA9EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="lookback 1yr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>No rebalancing</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,6 +75,19 @@
     <t>MaxReturn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>GMV</t>
+  </si>
+  <si>
+    <t>MaxSharpe</t>
+  </si>
+  <si>
+    <t>MaxReturn</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -83,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,22 +123,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -161,6 +158,47 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -178,6 +216,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -187,44 +533,167 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,104 +1015,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89D2B4-DABB-471A-A1A4-1F50EAB8882A}">
-  <dimension ref="C1:M9"/>
+  <dimension ref="C1:M25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13">
       <c r="C1" s="2"/>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>30</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>45</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>15</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>30</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>45</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>15</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>30</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>45</v>
       </c>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="3:13">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="3">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="3">
         <v>1.15E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>1.03E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="3">
         <v>1.06E-2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>1.035E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>1.04E-2</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -651,135 +1127,141 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <f>(10072-10000)/10000</f>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <f>(10055-10000)/10000</f>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f>(10060-10000)/10000</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="3">
         <f>(10372-10000)/10000</f>
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f>(9983-10000)/10000</f>
         <v>-1.6999999999999999E-3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <f>(10044-10000)/10000</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="3">
         <f>(10331-10000)/10000</f>
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <f>(9991-10000)/10000</f>
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="3">
         <f>(10147-10000)/10000</f>
         <v>1.47E-2</v>
       </c>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>30</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>45</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>15</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>30</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>45</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>15</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>30</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>45</v>
       </c>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="3:13">
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>1.15E-2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>1.15E-2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>1.04E-2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="5">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>1.04E-2</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -787,45 +1269,292 @@
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <f>(9526-10000)/10000</f>
         <v>-4.7399999999999998E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <f>(9684-10000)/10000</f>
         <v>-3.1600000000000003E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f>(9621-10000)/10000</f>
         <v>-3.7900000000000003E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f>(10236-10000)/10000</f>
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f>(10026-10000)/10000</f>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="5">
         <f>(10112-10000)/10000</f>
         <v>1.12E-2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="5">
         <f>(10331-10000)/10000</f>
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <f>(9991-10000)/10000</f>
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="5">
         <f>(10147-10000)/10000</f>
         <v>1.47E-2</v>
       </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="11" spans="3:13" ht="17.25" thickBot="1"/>
+    <row r="12" spans="3:13" ht="17.25" thickBot="1">
+      <c r="C12" s="33"/>
+      <c r="D12" s="42">
+        <v>15</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="42">
+        <v>30</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="42">
+        <v>45</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="22"/>
+      <c r="D13" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.03E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.035E-2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.06E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J14" s="32">
+        <v>1.15E-2</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="17.25" thickBot="1">
+      <c r="C15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="28">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E15" s="51">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="G15" s="28">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H15" s="13">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="I15" s="14">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="J15" s="28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K15" s="13">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1.47E-2</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="22"/>
+      <c r="D16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="50">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1.15E-2</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="G17" s="29">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="J17" s="29">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1.04E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="17.25" thickBot="1">
+      <c r="C18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30">
+        <v>-4.7399999999999998E-2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="G18" s="30">
+        <v>-3.1600000000000003E-2</v>
+      </c>
+      <c r="H18" s="16">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I18" s="17">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="J18" s="30">
+        <v>-3.7900000000000003E-2</v>
+      </c>
+      <c r="K18" s="16">
+        <v>1.12E-2</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1.47E-2</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="D24" s="34">
+        <f>MAX(D14:L14,D17:L17)</f>
+        <v>1.15E-2</v>
+      </c>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="D25" s="34">
+        <f>MAX(D15:L15,D18:L18)</f>
+        <v>3.7199999999999997E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
@@ -840,101 +1569,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E41E6-F58C-4CF1-B36D-AFF5C3A9EE78}">
-  <dimension ref="C1:M10"/>
+  <dimension ref="C1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13">
-      <c r="C1" s="4"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>30</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>45</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>15</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>30</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>45</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>15</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>30</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="3:13">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>1.15E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>1.03E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>1.06E-2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>1.035E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <v>1.04E-2</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -942,137 +1676,137 @@
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <f>(10015-10000)/10000</f>
         <v>1.5E-3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <f>(9987-10000)/10000</f>
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f>(10028-10000)/10000</f>
         <v>2.8E-3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <f>(10307-10000)/10000</f>
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f>(10017-10000)/10000</f>
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <f>(9951-10000)/10000</f>
         <v>-4.8999999999999998E-3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <f>(10289-10000)/10000</f>
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <f>(10049-10000)/10000</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <f>(9964-10000)/10000</f>
         <v>-3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="6"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>30</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>45</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>15</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>30</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>45</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>15</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>30</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>1.15E-2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>1.15E-2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>1.04E-2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>1.04E-2</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1080,60 +1814,300 @@
       </c>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <f>(9516-10000)/10000</f>
         <v>-4.8399999999999999E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <f>(9680-10000)/10000</f>
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f>(9642-10000)/10000</f>
         <v>-3.5799999999999998E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <f>(10314-10000)/10000</f>
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f>(10022-10000)/10000</f>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f>(9964-10000)/10000</f>
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <f>(10289-10000)/10000</f>
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <f>(10049-10000)/10000</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <f>(9964-10000)/10000</f>
         <v>-3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="3:13" ht="17.25" thickBot="1"/>
+    <row r="12" spans="3:13">
+      <c r="C12" s="41"/>
+      <c r="D12" s="46">
+        <v>15</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49">
+        <v>30</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49">
+        <v>45</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="38"/>
+      <c r="D13" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.03E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.035E-2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.06E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J14" s="32">
+        <v>1.15E-2</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="G15" s="27">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I15" s="12">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="J15" s="27">
+        <v>2.8E-3</v>
+      </c>
+      <c r="K15" s="10">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="L15" s="12">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="38"/>
+      <c r="D16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="52">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1.15E-2</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="G17" s="29">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="J17" s="29">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1.04E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="17.25" thickBot="1">
+      <c r="C18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25">
+        <v>-4.8399999999999999E-2</v>
+      </c>
+      <c r="E18" s="53">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="G18" s="30">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="H18" s="16">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I18" s="17">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="J18" s="30">
+        <v>-3.5799999999999998E-2</v>
+      </c>
+      <c r="K18" s="16">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="L18" s="17">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="D22" s="34"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="D24" s="34">
+        <f>MAX(D14:L14,D17:L17)</f>
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="D25" s="34">
+        <f>MAX(D15:L15,D18:L18)</f>
+        <v>3.1399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>

--- a/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
+++ b/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365khu-my.sharepoint.com/personal/sopiayoo_office_khu_ac_kr/Documents/문서/GitHub/SNPQuantTeam01/Jiyoung/1127/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E261DD1B-D2EA-41E5-8EAD-CAA06F338FDC}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C96E2C2-3F5B-4AA5-AAE5-1FF050E7D771}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3B244F5F-9197-430A-9637-ECAD84FA9EF7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{3B244F5F-9197-430A-9637-ECAD84FA9EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="lookback 1yr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="14">
   <si>
     <t>No rebalancing</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -533,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,9 +630,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,6 +657,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,18 +688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89D2B4-DABB-471A-A1A4-1F50EAB8882A}">
   <dimension ref="C1:M25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1038,21 +1032,21 @@
   <sheetData>
     <row r="1" spans="3:13">
       <c r="C1" s="2"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="3:13">
@@ -1180,21 +1174,21 @@
     </row>
     <row r="6" spans="3:13">
       <c r="C6" s="4"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="3:13">
@@ -1309,22 +1303,22 @@
     </row>
     <row r="11" spans="3:13" ht="17.25" thickBot="1"/>
     <row r="12" spans="3:13" ht="17.25" thickBot="1">
-      <c r="C12" s="33"/>
-      <c r="D12" s="42">
+      <c r="C12" s="32"/>
+      <c r="D12" s="44">
         <v>15</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="42">
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="44">
         <v>30</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="42">
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="44">
         <v>45</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="3:13">
       <c r="C13" s="22"/>
@@ -1362,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="27">
-        <v>1.0500000000000001E-2</v>
+        <v>1.01192888674128E-2</v>
       </c>
       <c r="E14" s="10">
         <v>1.03E-2</v>
@@ -1371,7 +1365,7 @@
         <v>1.035E-2</v>
       </c>
       <c r="G14" s="27">
-        <v>1.1299999999999999E-2</v>
+        <v>1.01267649183147E-2</v>
       </c>
       <c r="H14" s="10">
         <v>1.06E-2</v>
@@ -1379,8 +1373,8 @@
       <c r="I14" s="12">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J14" s="32">
-        <v>1.15E-2</v>
+      <c r="J14" s="27">
+        <v>1.0127898324948301E-2</v>
       </c>
       <c r="K14" s="10">
         <v>1.0699999999999999E-2</v>
@@ -1388,9 +1382,7 @@
       <c r="L14" s="12">
         <v>1.04E-2</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="3:13" ht="17.25" thickBot="1">
       <c r="C15" s="24" t="s">
@@ -1399,7 +1391,7 @@
       <c r="D15" s="28">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="42">
         <v>3.7199999999999997E-2</v>
       </c>
       <c r="F15" s="14">
@@ -1460,7 +1452,7 @@
       <c r="C17" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="41">
         <v>1.15E-2</v>
       </c>
       <c r="E17" s="21">
@@ -1487,9 +1479,7 @@
       <c r="L17" s="15">
         <v>1.04E-2</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="3:13" ht="17.25" thickBot="1">
       <c r="C18" s="24" t="s">
@@ -1538,14 +1528,14 @@
       <c r="M19" s="4"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <f>MAX(D14:L14,D17:L17)</f>
         <v>1.15E-2</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" spans="3:13">
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <f>MAX(D15:L15,D18:L18)</f>
         <v>3.7199999999999997E-2</v>
       </c>
@@ -1571,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E41E6-F58C-4CF1-B36D-AFF5C3A9EE78}">
   <dimension ref="C1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1592,21 +1582,21 @@
   <sheetData>
     <row r="1" spans="3:13">
       <c r="C1" s="2"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="3:13">
       <c r="C2" s="8" t="s">
@@ -1730,21 +1720,21 @@
     </row>
     <row r="6" spans="3:13">
       <c r="C6" s="4"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="8" t="s">
@@ -1868,60 +1858,60 @@
     </row>
     <row r="11" spans="3:13" ht="17.25" thickBot="1"/>
     <row r="12" spans="3:13">
-      <c r="C12" s="41"/>
-      <c r="D12" s="46">
+      <c r="C12" s="40"/>
+      <c r="D12" s="48">
         <v>15</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49">
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51">
         <v>30</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49">
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51">
         <v>45</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="38"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="36" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="36" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="31">
-        <v>1.0500000000000001E-2</v>
+      <c r="D14" s="27">
+        <v>1.01192888674128E-2</v>
       </c>
       <c r="E14" s="10">
         <v>1.03E-2</v>
@@ -1930,7 +1920,7 @@
         <v>1.035E-2</v>
       </c>
       <c r="G14" s="27">
-        <v>1.1299999999999999E-2</v>
+        <v>1.01267649183147E-2</v>
       </c>
       <c r="H14" s="10">
         <v>1.06E-2</v>
@@ -1938,8 +1928,8 @@
       <c r="I14" s="12">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J14" s="32">
-        <v>1.15E-2</v>
+      <c r="J14" s="27">
+        <v>1.0127898324948301E-2</v>
       </c>
       <c r="K14" s="10">
         <v>1.0699999999999999E-2</v>
@@ -1947,12 +1937,10 @@
       <c r="L14" s="12">
         <v>1.04E-2</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="31">
@@ -1985,41 +1973,41 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="38"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="36" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="36" t="s">
         <v>12</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="41">
         <v>1.15E-2</v>
       </c>
       <c r="E17" s="21">
@@ -2046,18 +2034,16 @@
       <c r="L17" s="15">
         <v>1.04E-2</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="3:13" ht="17.25" thickBot="1">
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="25">
         <v>-4.8399999999999999E-2</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="43">
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="F18" s="17">
@@ -2084,16 +2070,16 @@
       <c r="M18" s="4"/>
     </row>
     <row r="22" spans="3:13">
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <f>MAX(D14:L14,D17:L17)</f>
         <v>1.15E-2</v>
       </c>
     </row>
     <row r="25" spans="3:13">
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <f>MAX(D15:L15,D18:L18)</f>
         <v>3.1399999999999997E-2</v>
       </c>

--- a/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
+++ b/Jiyoung/1127/리밸런싱 수익률 비교.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365khu-my.sharepoint.com/personal/sopiayoo_office_khu_ac_kr/Documents/문서/GitHub/SNPQuantTeam01/Jiyoung/1127/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C96E2C2-3F5B-4AA5-AAE5-1FF050E7D771}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{43412A0A-1A58-433D-89E0-1A77E686B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A97322-E42A-4389-8337-0865B212FFE1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{3B244F5F-9197-430A-9637-ECAD84FA9EF7}"/>
   </bookViews>
@@ -96,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +199,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -533,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +697,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1562,7 +1579,7 @@
   <dimension ref="C1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1914,28 +1931,28 @@
         <v>1.01192888674128E-2</v>
       </c>
       <c r="E14" s="10">
-        <v>1.03E-2</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1.035E-2</v>
+        <v>1.0241142000147E-2</v>
+      </c>
+      <c r="F14" s="53">
+        <v>1.0839474284310801E-2</v>
       </c>
       <c r="G14" s="27">
         <v>1.01267649183147E-2</v>
       </c>
       <c r="H14" s="10">
-        <v>1.06E-2</v>
+        <v>1.02148219628237E-2</v>
       </c>
       <c r="I14" s="12">
-        <v>1.0500000000000001E-2</v>
+        <v>1.0386675898173801E-2</v>
       </c>
       <c r="J14" s="27">
         <v>1.0127898324948301E-2</v>
       </c>
       <c r="K14" s="10">
-        <v>1.0699999999999999E-2</v>
+        <v>1.0093433277733601E-2</v>
       </c>
       <c r="L14" s="12">
-        <v>1.04E-2</v>
+        <v>1.01959451279875E-2</v>
       </c>
       <c r="M14" s="9"/>
     </row>
@@ -2007,32 +2024,32 @@
       <c r="C17" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="41">
-        <v>1.15E-2</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1.15E-2</v>
-      </c>
-      <c r="F17" s="15">
-        <v>1.1299999999999999E-2</v>
+      <c r="D17" s="29">
+        <v>3.3333735444539302E-4</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1.0488955386339101E-2</v>
+      </c>
+      <c r="F17" s="52">
+        <v>1.0839474284310801E-2</v>
       </c>
       <c r="G17" s="29">
-        <v>9.7999999999999997E-3</v>
+        <v>1.6666711273785801E-4</v>
       </c>
       <c r="H17" s="11">
-        <v>1.0500000000000001E-2</v>
+        <v>1.03048595909047E-2</v>
       </c>
       <c r="I17" s="15">
-        <v>1.0699999999999999E-2</v>
+        <v>1.0386675898173801E-2</v>
       </c>
       <c r="J17" s="29">
-        <v>9.7000000000000003E-3</v>
+        <v>4.4444327631398698E-4</v>
       </c>
       <c r="K17" s="11">
-        <v>1.04E-2</v>
+        <v>1.0081919289835799E-2</v>
       </c>
       <c r="L17" s="15">
-        <v>1.04E-2</v>
+        <v>1.01959451279875E-2</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2073,9 +2090,9 @@
       <c r="D22" s="33"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="D24" s="33">
+      <c r="D24" s="54">
         <f>MAX(D14:L14,D17:L17)</f>
-        <v>1.15E-2</v>
+        <v>1.0839474284310801E-2</v>
       </c>
     </row>
     <row r="25" spans="3:13">
